--- a/assets/berkas/admin/VHTS_(29).xlsx
+++ b/assets/berkas/admin/VHTS_(29).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SJAH-Online\assets\berkas\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF757696-E01F-4D89-A9B3-FA95A8387FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="7995"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VHTS (29)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -157,12 +163,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,7 +767,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -814,31 +820,31 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -992,13 +998,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1014,6 +1020,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1084,70 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -2111,6 +2117,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2131,7 +2145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPr id="1031" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2208,7 +2228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2240,9 +2260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2274,6 +2312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2449,17 +2505,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="78" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
@@ -2476,21 +2532,21 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="21.75" customHeight="1">
+    <row r="3" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>4</v>
       </c>
@@ -2503,57 +2559,57 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75">
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.75">
+      <c r="F5" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75">
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="27"/>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75">
-      <c r="E8" s="76" t="s">
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2562,16 +2618,16 @@
       <c r="G11" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>5</v>
       </c>
@@ -2582,14 +2638,14 @@
       <c r="G12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="103"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>6</v>
       </c>
@@ -2607,7 +2663,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="72"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
         <v>7</v>
       </c>
@@ -2625,7 +2681,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="59"/>
     </row>
-    <row r="15" spans="2:13" ht="3.75" customHeight="1" thickBot="1">
+    <row r="15" spans="2:13" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2639,23 +2695,23 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B16" s="93" t="s">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="36" t="s">
         <v>16</v>
@@ -2680,7 +2736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -2695,68 +2751,68 @@
       <c r="L18" s="16"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="49"/>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="6"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="80" t="s">
+      <c r="J19" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="81"/>
+      <c r="K19" s="97"/>
       <c r="L19" s="18"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="C20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="89"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="6"/>
       <c r="I20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="82" t="s">
+      <c r="J20" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="83"/>
+      <c r="K20" s="99"/>
       <c r="L20" s="18"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="12"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="91"/>
+      <c r="E21" s="107"/>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="7"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="84" t="s">
+      <c r="J21" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="85"/>
+      <c r="K21" s="101"/>
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:13" ht="4.5" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2770,63 +2826,63 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="105" t="s">
+    <row r="23" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77" t="s">
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-    </row>
-    <row r="24" spans="1:13" s="26" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B24" s="106"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="104" t="s">
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="94"/>
+    </row>
+    <row r="24" spans="1:13" s="26" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="88"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="99" t="s">
+      <c r="K24" s="82"/>
+      <c r="L24" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="101"/>
-    </row>
-    <row r="25" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B25" s="106"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="88"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="41" t="s">
         <v>27</v>
       </c>
@@ -2846,7 +2902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="67" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -2884,7 +2940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="27" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <v>1</v>
       </c>
@@ -2900,7 +2956,7 @@
       <c r="L27" s="54"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="28" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <v>2</v>
       </c>
@@ -2931,7 +2987,7 @@
       <c r="L28" s="54"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="29" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <v>3</v>
       </c>
@@ -2962,7 +3018,7 @@
       <c r="L29" s="54"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="30" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <v>4</v>
       </c>
@@ -2993,7 +3049,7 @@
       <c r="L30" s="54"/>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="31" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <v>5</v>
       </c>
@@ -3024,7 +3080,7 @@
       <c r="L31" s="54"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="32" spans="1:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <v>6</v>
       </c>
@@ -3055,7 +3111,7 @@
       <c r="L32" s="54"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="33" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <v>7</v>
       </c>
@@ -3086,7 +3142,7 @@
       <c r="L33" s="54"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="34" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <v>8</v>
       </c>
@@ -3117,7 +3173,7 @@
       <c r="L34" s="54"/>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="35" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <v>9</v>
       </c>
@@ -3148,7 +3204,7 @@
       <c r="L35" s="54"/>
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="36" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <v>10</v>
       </c>
@@ -3179,7 +3235,7 @@
       <c r="L36" s="54"/>
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="37" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <v>11</v>
       </c>
@@ -3210,7 +3266,7 @@
       <c r="L37" s="54"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="38" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <v>12</v>
       </c>
@@ -3241,7 +3297,7 @@
       <c r="L38" s="54"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="39" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <v>13</v>
       </c>
@@ -3272,7 +3328,7 @@
       <c r="L39" s="54"/>
       <c r="M39" s="30"/>
     </row>
-    <row r="40" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="40" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <v>14</v>
       </c>
@@ -3303,7 +3359,7 @@
       <c r="L40" s="54"/>
       <c r="M40" s="30"/>
     </row>
-    <row r="41" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="41" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <v>15</v>
       </c>
@@ -3334,7 +3390,7 @@
       <c r="L41" s="54"/>
       <c r="M41" s="30"/>
     </row>
-    <row r="42" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="42" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <v>16</v>
       </c>
@@ -3365,7 +3421,7 @@
       <c r="L42" s="54"/>
       <c r="M42" s="30"/>
     </row>
-    <row r="43" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="43" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <v>17</v>
       </c>
@@ -3396,7 +3452,7 @@
       <c r="L43" s="54"/>
       <c r="M43" s="30"/>
     </row>
-    <row r="44" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="44" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <v>18</v>
       </c>
@@ -3427,7 +3483,7 @@
       <c r="L44" s="54"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="45" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <v>19</v>
       </c>
@@ -3458,7 +3514,7 @@
       <c r="L45" s="54"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="46" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <v>20</v>
       </c>
@@ -3489,7 +3545,7 @@
       <c r="L46" s="54"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="47" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <v>21</v>
       </c>
@@ -3520,7 +3576,7 @@
       <c r="L47" s="54"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="48" spans="2:13" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
         <v>22</v>
       </c>
@@ -3551,7 +3607,7 @@
       <c r="L48" s="54"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="49" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
         <v>23</v>
       </c>
@@ -3582,7 +3638,7 @@
       <c r="L49" s="54"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="50" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
         <v>24</v>
       </c>
@@ -3613,7 +3669,7 @@
       <c r="L50" s="54"/>
       <c r="M50" s="30"/>
     </row>
-    <row r="51" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="51" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
         <v>25</v>
       </c>
@@ -3644,7 +3700,7 @@
       <c r="L51" s="54"/>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="52" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
         <v>26</v>
       </c>
@@ -3675,7 +3731,7 @@
       <c r="L52" s="54"/>
       <c r="M52" s="30"/>
     </row>
-    <row r="53" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="53" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
         <v>27</v>
       </c>
@@ -3706,7 +3762,7 @@
       <c r="L53" s="54"/>
       <c r="M53" s="30"/>
     </row>
-    <row r="54" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="54" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
         <v>28</v>
       </c>
@@ -3737,7 +3793,7 @@
       <c r="L54" s="54"/>
       <c r="M54" s="30"/>
     </row>
-    <row r="55" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="55" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="53">
         <v>29</v>
       </c>
@@ -3768,56 +3824,56 @@
       <c r="L55" s="54"/>
       <c r="M55" s="30"/>
     </row>
-    <row r="56" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="56" spans="2:14" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="57">
-        <f>SUM(C27:C55)</f>
+        <f t="shared" ref="C56:M56" si="5">SUM(C27:C55)</f>
         <v>0</v>
       </c>
       <c r="D56" s="57">
-        <f>SUM(D27:D55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="57">
-        <f>SUM(E27:E55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F56" s="57">
-        <f>SUM(F27:F55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G56" s="57">
-        <f>SUM(G27:G55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H56" s="57">
-        <f>SUM(H27:H55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I56" s="57">
-        <f>SUM(I27:I55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J56" s="57">
-        <f>SUM(J27:J55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56" s="57">
-        <f>SUM(K27:K55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="57">
-        <f>SUM(L27:L55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M56" s="58">
-        <f>SUM(M27:M55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>33</v>
       </c>
@@ -3833,24 +3889,24 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75">
-      <c r="C59" s="98" t="s">
+    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="98"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="98" t="s">
+      <c r="K59" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.75">
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="14"/>
@@ -3863,7 +3919,7 @@
       <c r="L60" s="26"/>
       <c r="M60" s="26"/>
     </row>
-    <row r="61" spans="2:14" ht="33" customHeight="1">
+    <row r="61" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -3876,38 +3932,38 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="2:14" ht="15.75">
+    <row r="62" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="92" t="s">
+      <c r="K62" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L62" s="92"/>
-      <c r="M62" s="92"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.75">
-      <c r="C63" s="92" t="s">
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="92"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="98" t="s">
+      <c r="K63" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
       <c r="N63" s="15"/>
     </row>
-    <row r="64" spans="2:14" ht="15.75">
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K64" s="26"/>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
@@ -3915,6 +3971,19 @@
   </sheetData>
   <sheetProtection password="CC65" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="29">
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="B16:M16"/>
@@ -3931,19 +4000,6 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="86" priority="93" operator="greaterThan">
